--- a/support_data/data/dict_short_names.xlsx
+++ b/support_data/data/dict_short_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Analytics\Илья\!repositories\price_analysis\support_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27889BCA-CD08-4564-B0AF-8629ABC7F8F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C32E9E3-3C06-479B-8D0A-323C790FF930}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="2763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4270" uniqueCount="2770">
   <si>
     <t>Заклепки 4,0*12мм</t>
   </si>
@@ -8309,6 +8309,27 @@
   </si>
   <si>
     <t>short_name</t>
+  </si>
+  <si>
+    <t>Электрод (220181, 100181)</t>
+  </si>
+  <si>
+    <t>Электрод 200А арт.220352 (100352)</t>
+  </si>
+  <si>
+    <t>Электрод 80А (220842, 100842)</t>
+  </si>
+  <si>
+    <t>Электрод 105А (220842)</t>
+  </si>
+  <si>
+    <t>Электрод 80А(220187)</t>
+  </si>
+  <si>
+    <t>Электрод 50А (220552, 100552)</t>
+  </si>
+  <si>
+    <t>Прочие</t>
   </si>
 </sst>
 </file>
@@ -8659,10 +8680,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:B2129"/>
+  <dimension ref="A1:B2135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:A6"/>
+    <sheetView tabSelected="1" topLeftCell="A2114" workbookViewId="0">
+      <selection activeCell="B2130" sqref="B2130:B2135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -25699,6 +25720,54 @@
         <v>927</v>
       </c>
     </row>
+    <row r="2130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2130" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B2130" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2131" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B2131" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2132" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B2132" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2133" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B2133" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2134" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2135" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B2135" t="s">
+        <v>2769</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
